--- a/zabbix_usergroup.xlsx
+++ b/zabbix_usergroup.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
   <si>
     <t>用户组（group name）</t>
   </si>
@@ -39,16 +39,19 @@
   <si>
     <t>Zabbix servers</t>
   </si>
+  <si>
+    <t>Hypervisors</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -69,6 +72,37 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -97,9 +131,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -107,6 +154,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -115,21 +185,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,59 +207,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -226,6 +229,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -250,25 +277,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,97 +385,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,6 +463,50 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -488,50 +535,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -540,10 +543,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,133 +555,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1037,13 +1040,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="17.25" customWidth="1"/>
     <col min="2" max="2" width="20.25" customWidth="1"/>
@@ -1068,7 +1071,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1082,6 +1085,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/zabbix_usergroup.xlsx
+++ b/zabbix_usergroup.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
   <si>
     <t>用户组（group name）</t>
   </si>
@@ -34,9 +34,6 @@
     <t>wangjinle-hostgroup</t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
     <t>Zabbix servers</t>
   </si>
   <si>
@@ -48,10 +45,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -72,37 +69,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,6 +97,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -138,32 +135,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -191,19 +175,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -229,6 +226,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -253,25 +274,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,12 +364,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -344,48 +383,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,50 +460,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -535,6 +488,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -543,10 +540,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -555,142 +552,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1043,7 +1043,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
@@ -1064,7 +1064,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
@@ -1075,19 +1075,18 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="1:3">
+      <c r="A4" s="2"/>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>2</v>
